--- a/testData/HomePageTestData.xlsx
+++ b/testData/HomePageTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rushi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Madhuri_Numpy_Ninja\TestNgFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB16430-6F4B-496E-BE83-CBE7FFB36D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD920DB4-D1B8-476A-9E04-E07DE8E8F6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65D720F9-F76E-411F-AF0A-B85A8BD266D9}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{65D720F9-F76E-411F-AF0A-B85A8BD266D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>DataStructure</t>
   </si>
@@ -58,6 +59,9 @@
   </si>
   <si>
     <t>GetStartedButton</t>
+  </si>
+  <si>
+    <t>DropdownTopic</t>
   </si>
 </sst>
 </file>
@@ -435,7 +439,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,4 +490,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA1BA8D-FD30-4C5C-8AB6-D8D9A6089F51}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>